--- a/homework3/result.xlsx
+++ b/homework3/result.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12345\Documents\4-1\jg\Ccode\homework3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2C1EDD5F-AF1C-4EBA-817B-E10FC1298628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5D2E44-7C36-4E32-AD3D-45706682198F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500"/>
+    <workbookView xWindow="3210" yWindow="1740" windowWidth="21060" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3620,15 +3620,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>231775</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3988,11 +3988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="O21:Q24"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/homework3/result.xlsx
+++ b/homework3/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12345\Documents\4-1\jg\Ccode\homework3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5D2E44-7C36-4E32-AD3D-45706682198F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985FE637-D1E1-4F6F-AA86-CA3AF9D6C583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="1740" windowWidth="21060" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3550" yWindow="2080" windowWidth="21060" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>total Action: 4.741701</t>
+    <t>total Action: 4.741699</t>
   </si>
 </sst>
 </file>
@@ -790,46 +790,46 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90093199999999996</c:v>
+                  <c:v>0.90046899999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90645900000000001</c:v>
+                  <c:v>0.905837</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.918292</c:v>
+                  <c:v>0.91780300000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93523299999999998</c:v>
+                  <c:v>0.93493800000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.955372</c:v>
+                  <c:v>0.95520700000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97760599999999998</c:v>
+                  <c:v>0.97757099999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0012129999999999</c:v>
+                  <c:v>1.001366</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0249740000000001</c:v>
+                  <c:v>1.0253099999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.047453</c:v>
+                  <c:v>1.047885</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0678460000000001</c:v>
+                  <c:v>1.068309</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.085963</c:v>
+                  <c:v>1.0864499999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1013520000000001</c:v>
+                  <c:v>1.101845</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1130180000000001</c:v>
+                  <c:v>1.1134390000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1204750000000001</c:v>
+                  <c:v>1.120717</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.125</c:v>
@@ -847,46 +847,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26303399999999999</c:v>
+                  <c:v>0.26324700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52250399999999997</c:v>
+                  <c:v>0.52309099999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77536400000000005</c:v>
+                  <c:v>0.77634800000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.019387</c:v>
+                  <c:v>1.0205550000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.253244</c:v>
+                  <c:v>1.2543880000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4764569999999999</c:v>
+                  <c:v>1.477552</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.689268</c:v>
+                  <c:v>1.690331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8924259999999999</c:v>
+                  <c:v>1.893357</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0869580000000001</c:v>
+                  <c:v>2.0876519999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2740290000000001</c:v>
+                  <c:v>2.274527</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.454898</c:v>
+                  <c:v>2.4552800000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6308590000000001</c:v>
+                  <c:v>2.6310910000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8031630000000001</c:v>
+                  <c:v>2.8031890000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9730050000000001</c:v>
+                  <c:v>2.9729290000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3.141591</c:v>
@@ -1257,46 +1257,46 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90093199999999996</c:v>
+                  <c:v>0.90046899999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90645900000000001</c:v>
+                  <c:v>0.905837</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.918292</c:v>
+                  <c:v>0.91780300000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93523299999999998</c:v>
+                  <c:v>0.93493800000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.955372</c:v>
+                  <c:v>0.95520700000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97760599999999998</c:v>
+                  <c:v>0.97757099999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0012129999999999</c:v>
+                  <c:v>1.001366</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0249740000000001</c:v>
+                  <c:v>1.0253099999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.047453</c:v>
+                  <c:v>1.047885</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0678460000000001</c:v>
+                  <c:v>1.068309</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.085963</c:v>
+                  <c:v>1.0864499999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1013520000000001</c:v>
+                  <c:v>1.101845</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1130180000000001</c:v>
+                  <c:v>1.1134390000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1204750000000001</c:v>
+                  <c:v>1.120717</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.125</c:v>
@@ -1670,46 +1670,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26303399999999999</c:v>
+                  <c:v>0.26324700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52250399999999997</c:v>
+                  <c:v>0.52309099999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77536400000000005</c:v>
+                  <c:v>0.77634800000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.019387</c:v>
+                  <c:v>1.0205550000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.253244</c:v>
+                  <c:v>1.2543880000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4764569999999999</c:v>
+                  <c:v>1.477552</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.689268</c:v>
+                  <c:v>1.690331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8924259999999999</c:v>
+                  <c:v>1.893357</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0869580000000001</c:v>
+                  <c:v>2.0876519999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2740290000000001</c:v>
+                  <c:v>2.274527</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.454898</c:v>
+                  <c:v>2.4552800000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6308590000000001</c:v>
+                  <c:v>2.6310910000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8031630000000001</c:v>
+                  <c:v>2.8031890000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9730050000000001</c:v>
+                  <c:v>2.9729290000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3.141591</c:v>
@@ -3584,15 +3584,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>60325</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>473075</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3655,16 +3655,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3991,8 +3991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4018,10 +4018,10 @@
         <v>0.21337700000000001</v>
       </c>
       <c r="B3">
-        <v>0.90093199999999996</v>
+        <v>0.90046899999999996</v>
       </c>
       <c r="C3">
-        <v>0.26303399999999999</v>
+        <v>0.26324700000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -4029,10 +4029,10 @@
         <v>0.42675299999999999</v>
       </c>
       <c r="B4">
-        <v>0.90645900000000001</v>
+        <v>0.905837</v>
       </c>
       <c r="C4">
-        <v>0.52250399999999997</v>
+        <v>0.52309099999999997</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -4040,10 +4040,10 @@
         <v>0.64012999999999998</v>
       </c>
       <c r="B5">
-        <v>0.918292</v>
+        <v>0.91780300000000004</v>
       </c>
       <c r="C5">
-        <v>0.77536400000000005</v>
+        <v>0.77634800000000004</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -4051,10 +4051,10 @@
         <v>0.85350700000000002</v>
       </c>
       <c r="B6">
-        <v>0.93523299999999998</v>
+        <v>0.93493800000000005</v>
       </c>
       <c r="C6">
-        <v>1.019387</v>
+        <v>1.0205550000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -4062,10 +4062,10 @@
         <v>1.066883</v>
       </c>
       <c r="B7">
-        <v>0.955372</v>
+        <v>0.95520700000000003</v>
       </c>
       <c r="C7">
-        <v>1.253244</v>
+        <v>1.2543880000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -4073,10 +4073,10 @@
         <v>1.28026</v>
       </c>
       <c r="B8">
-        <v>0.97760599999999998</v>
+        <v>0.97757099999999997</v>
       </c>
       <c r="C8">
-        <v>1.4764569999999999</v>
+        <v>1.477552</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -4084,10 +4084,10 @@
         <v>1.4936370000000001</v>
       </c>
       <c r="B9">
-        <v>1.0012129999999999</v>
+        <v>1.001366</v>
       </c>
       <c r="C9">
-        <v>1.689268</v>
+        <v>1.690331</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -4095,10 +4095,10 @@
         <v>1.7070129999999999</v>
       </c>
       <c r="B10">
-        <v>1.0249740000000001</v>
+        <v>1.0253099999999999</v>
       </c>
       <c r="C10">
-        <v>1.8924259999999999</v>
+        <v>1.893357</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -4106,10 +4106,10 @@
         <v>1.92039</v>
       </c>
       <c r="B11">
-        <v>1.047453</v>
+        <v>1.047885</v>
       </c>
       <c r="C11">
-        <v>2.0869580000000001</v>
+        <v>2.0876519999999998</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -4117,10 +4117,10 @@
         <v>2.1337670000000002</v>
       </c>
       <c r="B12">
-        <v>1.0678460000000001</v>
+        <v>1.068309</v>
       </c>
       <c r="C12">
-        <v>2.2740290000000001</v>
+        <v>2.274527</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -4128,10 +4128,10 @@
         <v>2.347143</v>
       </c>
       <c r="B13">
-        <v>1.085963</v>
+        <v>1.0864499999999999</v>
       </c>
       <c r="C13">
-        <v>2.454898</v>
+        <v>2.4552800000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -4139,10 +4139,10 @@
         <v>2.5605199999999999</v>
       </c>
       <c r="B14">
-        <v>1.1013520000000001</v>
+        <v>1.101845</v>
       </c>
       <c r="C14">
-        <v>2.6308590000000001</v>
+        <v>2.6310910000000001</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -4150,10 +4150,10 @@
         <v>2.7738969999999998</v>
       </c>
       <c r="B15">
-        <v>1.1130180000000001</v>
+        <v>1.1134390000000001</v>
       </c>
       <c r="C15">
-        <v>2.8031630000000001</v>
+        <v>2.8031890000000002</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -4161,10 +4161,10 @@
         <v>2.9872730000000001</v>
       </c>
       <c r="B16">
-        <v>1.1204750000000001</v>
+        <v>1.120717</v>
       </c>
       <c r="C16">
-        <v>2.9730050000000001</v>
+        <v>2.9729290000000002</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">

--- a/homework3/result.xlsx
+++ b/homework3/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12345\Documents\4-1\jg\Ccode\homework3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985FE637-D1E1-4F6F-AA86-CA3AF9D6C583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBC51E7-C841-4C5D-B722-4E1F09CF5E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3550" yWindow="2080" windowWidth="21060" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="240" windowWidth="19330" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>total Action: 4.741699</t>
+    <t>real z</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>total Action: 4.741694</t>
   </si>
 </sst>
 </file>
@@ -790,46 +794,46 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90046899999999996</c:v>
+                  <c:v>0.89993999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.905837</c:v>
+                  <c:v>0.906115</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91780300000000004</c:v>
+                  <c:v>0.918022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93493800000000005</c:v>
+                  <c:v>0.93474000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95520700000000003</c:v>
+                  <c:v>0.95508300000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97757099999999997</c:v>
+                  <c:v>0.97775999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.001366</c:v>
+                  <c:v>1.001511</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0253099999999999</c:v>
+                  <c:v>1.025183</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.047885</c:v>
+                  <c:v>1.047782</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.068309</c:v>
+                  <c:v>1.0684800000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0864499999999999</c:v>
+                  <c:v>1.0866130000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.101845</c:v>
+                  <c:v>1.101664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1134390000000001</c:v>
+                  <c:v>1.113246</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.120717</c:v>
+                  <c:v>1.1210830000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.125</c:v>
@@ -847,49 +851,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26324700000000001</c:v>
+                  <c:v>0.263434</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52309099999999997</c:v>
+                  <c:v>0.523289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77634800000000004</c:v>
+                  <c:v>0.776447</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0205550000000001</c:v>
+                  <c:v>1.0206310000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2543880000000001</c:v>
+                  <c:v>1.2545230000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.477552</c:v>
+                  <c:v>1.4776929999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.690331</c:v>
+                  <c:v>1.690402</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.893357</c:v>
+                  <c:v>1.893402</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0876519999999998</c:v>
+                  <c:v>2.087739</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.274527</c:v>
+                  <c:v>2.2746200000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4552800000000001</c:v>
+                  <c:v>2.4553159999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6310910000000001</c:v>
+                  <c:v>2.6311079999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8031890000000002</c:v>
+                  <c:v>2.803261</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9729290000000002</c:v>
+                  <c:v>2.9730159999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.141591</c:v>
+                  <c:v>3.1415899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1257,46 +1261,46 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90046899999999996</c:v>
+                  <c:v>0.89993999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.905837</c:v>
+                  <c:v>0.906115</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91780300000000004</c:v>
+                  <c:v>0.918022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93493800000000005</c:v>
+                  <c:v>0.93474000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95520700000000003</c:v>
+                  <c:v>0.95508300000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97757099999999997</c:v>
+                  <c:v>0.97775999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.001366</c:v>
+                  <c:v>1.001511</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0253099999999999</c:v>
+                  <c:v>1.025183</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.047885</c:v>
+                  <c:v>1.047782</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.068309</c:v>
+                  <c:v>1.0684800000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0864499999999999</c:v>
+                  <c:v>1.0866130000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.101845</c:v>
+                  <c:v>1.101664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1134390000000001</c:v>
+                  <c:v>1.113246</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.120717</c:v>
+                  <c:v>1.1210830000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.125</c:v>
@@ -1308,6 +1312,155 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CBB5-430D-AAFF-437C62D06FC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>real</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>result!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21337700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42675299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64012999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85350700000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.066883</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.28026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4936370000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7070129999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.92039</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1337670000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.347143</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5605199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7738969999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9872730000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.20065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>result!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90309499999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91212199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92644499999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94493000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96638199999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98953500000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.013191</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0363150000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0579350000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0773410000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.093944</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1072919999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1170519999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1230039999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5440-4558-BB5E-120DE2F92998}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1388,7 +1541,7 @@
         <c:axId val="823745376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.9"/>
+          <c:min val="0.85000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1670,49 +1823,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26324700000000001</c:v>
+                  <c:v>0.263434</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52309099999999997</c:v>
+                  <c:v>0.523289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77634800000000004</c:v>
+                  <c:v>0.776447</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0205550000000001</c:v>
+                  <c:v>1.0206310000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2543880000000001</c:v>
+                  <c:v>1.2545230000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.477552</c:v>
+                  <c:v>1.4776929999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.690331</c:v>
+                  <c:v>1.690402</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.893357</c:v>
+                  <c:v>1.893402</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0876519999999998</c:v>
+                  <c:v>2.087739</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.274527</c:v>
+                  <c:v>2.2746200000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4552800000000001</c:v>
+                  <c:v>2.4553159999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6310910000000001</c:v>
+                  <c:v>2.6311079999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8031890000000002</c:v>
+                  <c:v>2.803261</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9729290000000002</c:v>
+                  <c:v>2.9730159999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.141591</c:v>
+                  <c:v>3.1415899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3583,16 +3736,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>60325</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>517525</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3619,16 +3772,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3989,20 +4142,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4012,162 +4168,207 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.21337700000000001</v>
       </c>
       <c r="B3">
-        <v>0.90046899999999996</v>
+        <v>0.89993999999999996</v>
       </c>
       <c r="C3">
-        <v>0.26324700000000001</v>
+        <v>0.263434</v>
+      </c>
+      <c r="D3">
+        <v>0.90309499999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.42675299999999999</v>
       </c>
       <c r="B4">
-        <v>0.905837</v>
+        <v>0.906115</v>
       </c>
       <c r="C4">
-        <v>0.52309099999999997</v>
+        <v>0.523289</v>
+      </c>
+      <c r="D4">
+        <v>0.91212199999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.64012999999999998</v>
       </c>
       <c r="B5">
-        <v>0.91780300000000004</v>
+        <v>0.918022</v>
       </c>
       <c r="C5">
-        <v>0.77634800000000004</v>
+        <v>0.776447</v>
+      </c>
+      <c r="D5">
+        <v>0.92644499999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.85350700000000002</v>
       </c>
       <c r="B6">
-        <v>0.93493800000000005</v>
+        <v>0.93474000000000002</v>
       </c>
       <c r="C6">
-        <v>1.0205550000000001</v>
+        <v>1.0206310000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.94493000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1.066883</v>
       </c>
       <c r="B7">
-        <v>0.95520700000000003</v>
+        <v>0.95508300000000002</v>
       </c>
       <c r="C7">
-        <v>1.2543880000000001</v>
+        <v>1.2545230000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.96638199999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1.28026</v>
       </c>
       <c r="B8">
-        <v>0.97757099999999997</v>
+        <v>0.97775999999999996</v>
       </c>
       <c r="C8">
-        <v>1.477552</v>
+        <v>1.4776929999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.98953500000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1.4936370000000001</v>
       </c>
       <c r="B9">
-        <v>1.001366</v>
+        <v>1.001511</v>
       </c>
       <c r="C9">
-        <v>1.690331</v>
+        <v>1.690402</v>
+      </c>
+      <c r="D9">
+        <v>1.013191</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1.7070129999999999</v>
       </c>
       <c r="B10">
-        <v>1.0253099999999999</v>
+        <v>1.025183</v>
       </c>
       <c r="C10">
-        <v>1.893357</v>
+        <v>1.893402</v>
+      </c>
+      <c r="D10">
+        <v>1.0363150000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1.92039</v>
       </c>
       <c r="B11">
-        <v>1.047885</v>
+        <v>1.047782</v>
       </c>
       <c r="C11">
-        <v>2.0876519999999998</v>
+        <v>2.087739</v>
+      </c>
+      <c r="D11">
+        <v>1.0579350000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2.1337670000000002</v>
       </c>
       <c r="B12">
-        <v>1.068309</v>
+        <v>1.0684800000000001</v>
       </c>
       <c r="C12">
-        <v>2.274527</v>
+        <v>2.2746200000000001</v>
+      </c>
+      <c r="D12">
+        <v>1.0773410000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2.347143</v>
       </c>
       <c r="B13">
-        <v>1.0864499999999999</v>
+        <v>1.0866130000000001</v>
       </c>
       <c r="C13">
-        <v>2.4552800000000001</v>
+        <v>2.4553159999999998</v>
+      </c>
+      <c r="D13">
+        <v>1.093944</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2.5605199999999999</v>
       </c>
       <c r="B14">
-        <v>1.101845</v>
+        <v>1.101664</v>
       </c>
       <c r="C14">
-        <v>2.6310910000000001</v>
+        <v>2.6311079999999998</v>
+      </c>
+      <c r="D14">
+        <v>1.1072919999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2.7738969999999998</v>
       </c>
       <c r="B15">
-        <v>1.1134390000000001</v>
+        <v>1.113246</v>
       </c>
       <c r="C15">
-        <v>2.8031890000000002</v>
+        <v>2.803261</v>
+      </c>
+      <c r="D15">
+        <v>1.1170519999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2.9872730000000001</v>
       </c>
       <c r="B16">
-        <v>1.120717</v>
+        <v>1.1210830000000001</v>
       </c>
       <c r="C16">
-        <v>2.9729290000000002</v>
+        <v>2.9730159999999999</v>
+      </c>
+      <c r="D16">
+        <v>1.1230039999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>3.20065</v>
       </c>
@@ -4175,12 +4376,16 @@
         <v>1.125</v>
       </c>
       <c r="C17">
-        <v>3.141591</v>
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="D17">
+        <v>1.125</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>